--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_P_last_10.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_P_last_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F2C61E8-8C72-420A-B050-DECC2F22C2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B430FD-CF4D-473F-BC5B-CF0A51DA4F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{917C518F-2B36-4108-89D0-01BB1C44754B}"/>
   </bookViews>
@@ -539,16 +539,16 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>0.33333333333333331</v>
@@ -563,16 +563,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -645,22 +645,22 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.14285714285714285</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>0.14285714285714285</v>
@@ -680,16 +680,16 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>0.11627906976744186</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.11627906976744186</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>0.11627906976744186</v>
@@ -698,22 +698,22 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>0.11627906976744186</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.11627906976744186</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>0.11627906976744186</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -727,40 +727,40 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -774,22 +774,22 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>0.16129032258064516</v>
@@ -821,22 +821,22 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -845,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0.16129032258064516</v>
@@ -868,22 +868,22 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0.16129032258064516</v>
@@ -915,22 +915,22 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>0.21739130434782608</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.21739130434782608</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0.21739130434782608</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -962,16 +962,16 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>0.25806451612903225</v>
@@ -980,16 +980,16 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>0.16129032258064516</v>
@@ -1009,10 +1009,10 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>0.17857142857142858</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0.21428571428571427</v>
@@ -1033,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.17857142857142858</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.17857142857142858</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1056,22 +1056,22 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>0.29411764705882354</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.29411764705882354</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>0.29411764705882354</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1080,16 +1080,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.29411764705882354</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1103,22 +1103,22 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>0.7142857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>0.7142857142857143</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7142857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1150,40 +1150,40 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>0.18518518518518517</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.18518518518518517</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0.18518518518518517</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>0.18518518518518517</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.18518518518518517</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0.18518518518518517</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1255,16 +1255,16 @@
         <v>33</v>
       </c>
       <c r="D19">
-        <v>0.15151515151515152</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>0.24242424242424243</v>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.15151515151515152</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1302,40 +1302,40 @@
         <v>39</v>
       </c>
       <c r="D20">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.22727272727272727</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>0.22727272727272727</v>
@@ -1454,40 +1454,40 @@
         <v>39</v>
       </c>
       <c r="D24">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1635,16 +1635,16 @@
         <v>12</v>
       </c>
       <c r="J29">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.1388888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <v>0.16666666666666666</v>
@@ -1722,10 +1722,10 @@
         <v>33</v>
       </c>
       <c r="D32">
-        <v>0.15151515151515152</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0.15151515151515152</v>
@@ -1752,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1903,28 +1903,28 @@
         <v>24</v>
       </c>
       <c r="D37">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>0.20833333333333334</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -2055,22 +2055,22 @@
         <v>14</v>
       </c>
       <c r="D41">
-        <v>0.35714285714285715</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0.35714285714285715</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>0.35714285714285715</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0.35714285714285715</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0.35714285714285715</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2178,16 +2178,16 @@
         <v>25</v>
       </c>
       <c r="D44">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <v>0.2</v>
@@ -2196,16 +2196,16 @@
         <v>5</v>
       </c>
       <c r="J44">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44">
         <v>0.28000000000000003</v>
@@ -2225,22 +2225,22 @@
         <v>24</v>
       </c>
       <c r="D45">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45">
         <v>0.20833333333333334</v>
@@ -2272,16 +2272,16 @@
         <v>22</v>
       </c>
       <c r="D46">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0.22727272727272727</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>0.36363636363636365</v>
@@ -2290,10 +2290,10 @@
         <v>8</v>
       </c>
       <c r="J46">
-        <v>0.22727272727272727</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46">
         <v>0.22727272727272727</v>
@@ -2319,22 +2319,22 @@
         <v>25</v>
       </c>
       <c r="D47">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2343,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2366,16 +2366,16 @@
         <v>30</v>
       </c>
       <c r="D48">
-        <v>0.16666666666666666</v>
+        <v>0.1</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>0.16666666666666666</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48">
         <v>0.23333333333333334</v>
@@ -2384,22 +2384,22 @@
         <v>7</v>
       </c>
       <c r="J48">
-        <v>0.16666666666666666</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>0.16666666666666666</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>0.16666666666666666</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -2419,16 +2419,16 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0.1388888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -2466,28 +2466,28 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>0.13157894736842105</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50">
         <v>0.21052631578947367</v>
@@ -2525,10 +2525,10 @@
         <v>8</v>
       </c>
       <c r="J51">
-        <v>0.11363636363636363</v>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>0.11363636363636363</v>
@@ -2554,40 +2554,40 @@
         <v>35</v>
       </c>
       <c r="D52">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>0.14285714285714285</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J52">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>0.14285714285714285</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -2630,22 +2630,22 @@
         <v>38</v>
       </c>
       <c r="D54">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2654,16 +2654,16 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>0.13157894736842105</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">

--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_P_last_10.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_P_last_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B430FD-CF4D-473F-BC5B-CF0A51DA4F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A45C70A5-22CA-4B4C-87B5-ADE37A0AB832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{917C518F-2B36-4108-89D0-01BB1C44754B}"/>
   </bookViews>
@@ -545,16 +545,16 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -645,28 +645,28 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>5.7142857142857141E-2</v>
-      </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.14285714285714285</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -698,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>2.3255813953488372E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>6.9767441860465115E-2</v>
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0.2</v>
@@ -757,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.12903225806451613</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>0.16129032258064516</v>
@@ -827,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>9.6774193548387094E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0.12903225806451613</v>
@@ -845,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.4516129032258063E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0.16129032258064516</v>
@@ -880,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>6.4516129032258063E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>2</v>
       </c>
       <c r="N10">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -921,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>0.13043478260869565</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>0.17391304347826086</v>
@@ -980,10 +980,10 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>9.6774193548387094E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>9.6774193548387094E-2</v>
@@ -1015,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <v>0.21428571428571427</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>0.2857142857142857</v>
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.5714285714285712E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0.14285714285714285</v>
@@ -1100,26 +1100,26 @@
         <v>2</v>
       </c>
       <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.25</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0.35</v>
+      </c>
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
       <c r="J15">
         <v>0</v>
       </c>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1150,16 +1150,16 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>7.407407407407407E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>7.407407407407407E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0.14814814814814814</v>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>5.128205128205128E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>5.128205128205128E-2</v>
@@ -1326,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>7.6923076923076927E-2</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>7.6923076923076927E-2</v>
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.0909090909090912E-2</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <v>0.22727272727272727</v>
@@ -1454,10 +1454,10 @@
         <v>39</v>
       </c>
       <c r="D24">
-        <v>2.564102564102564E-2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>7.6923076923076927E-2</v>
@@ -1635,16 +1635,16 @@
         <v>12</v>
       </c>
       <c r="J29">
-        <v>5.5555555555555552E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29">
         <v>0.16666666666666666</v>
@@ -1722,16 +1722,16 @@
         <v>33</v>
       </c>
       <c r="D32">
-        <v>3.0303030303030304E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <v>0.21212121212121213</v>
@@ -1746,16 +1746,16 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>6.0606060606060608E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1933,10 +1933,10 @@
         <v>5</v>
       </c>
       <c r="N37">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -2131,10 +2131,10 @@
         <v>95</v>
       </c>
       <c r="D43">
-        <v>9.4736842105263161E-2</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <v>0.15789473684210525</v>
@@ -2155,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="L43">
-        <v>9.4736842105263161E-2</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N43">
         <v>0.15789473684210525</v>
@@ -2178,10 +2178,10 @@
         <v>25</v>
       </c>
       <c r="D44">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>0.16</v>
@@ -2196,22 +2196,22 @@
         <v>5</v>
       </c>
       <c r="J44">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="O44">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2225,10 +2225,10 @@
         <v>24</v>
       </c>
       <c r="D45">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>0.125</v>
@@ -2243,10 +2243,10 @@
         <v>4</v>
       </c>
       <c r="J45">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45">
         <v>0.25</v>
@@ -2284,16 +2284,16 @@
         <v>3</v>
       </c>
       <c r="H46">
-        <v>0.36363636363636365</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J46">
-        <v>0.18181818181818182</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L46">
         <v>0.22727272727272727</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>0.08</v>
@@ -2372,10 +2372,10 @@
         <v>3</v>
       </c>
       <c r="F48">
-        <v>0.13333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48">
         <v>0.23333333333333334</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0.1111111111111111</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -2507,10 +2507,10 @@
         <v>44</v>
       </c>
       <c r="D51">
-        <v>0.11363636363636363</v>
+        <v>6.8181818181818177E-2</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F51">
         <v>0.13636363636363635</v>
@@ -2519,10 +2519,10 @@
         <v>6</v>
       </c>
       <c r="H51">
-        <v>0.18181818181818182</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="I51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J51">
         <v>2.2727272727272728E-2</v>
@@ -2560,10 +2560,10 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>2.8571428571428571E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>8.5714285714285715E-2</v>
@@ -2642,22 +2642,22 @@
         <v>2</v>
       </c>
       <c r="H54">
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>2.6315789473684209E-2</v>
-      </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>0.10526315789473684</v>
